--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -651,9 +651,92 @@
         <v/>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Z4007573</v>
+      </c>
+      <c r="C4" t="str">
+        <v>RAVIKUMAR</v>
+      </c>
+      <c r="D4" t="str">
+        <v>BHARATBHAI</v>
+      </c>
+      <c r="E4" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="F4" t="str">
+        <v>M</v>
+      </c>
+      <c r="G4" t="str">
+        <v>1987-06-09</v>
+      </c>
+      <c r="H4" t="str">
+        <v>AHMEDABAD, GUJARAT</v>
+      </c>
+      <c r="I4" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2017-04-07</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2027-04-06</v>
+      </c>
+      <c r="L4" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757059782/id-ocr-docs/passport_front/dhqfkgprcxqyvwxhrezx.jpg</v>
+      </c>
+      <c r="M4" t="str">
+        <v>BHARATBHAI REVABHAI PATEL</v>
+      </c>
+      <c r="N4" t="str">
+        <v>KAILASHBEN BHARATBHAI PATEL</v>
+      </c>
+      <c r="O4" t="str">
+        <v>DIVYABEN RAVIKUMAR PATEL</v>
+      </c>
+      <c r="P4" t="str">
+        <v>45,KRISHNA PARK,JASHODANAGAR,GOR NO KUVO, MANINAGAR (EAST),AHMEDABAD, PIN:380008,GUJARAT,INDIA</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757059783/id-ocr-docs/passport_back/uura8hd9olvab8h0wrtb.jpg</v>
+      </c>
+      <c r="R4" t="str">
+        <v>9170 3033 7162</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Ravikumar Bharatbhai Patel</v>
+      </c>
+      <c r="T4" t="str">
+        <v>1987-06-09</v>
+      </c>
+      <c r="U4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="V4" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757059793/id-ocr-docs/aadhar/w6dom14estbyayo7ktdj.jpg</v>
+      </c>
+      <c r="W4" t="str">
+        <v>AAFCB7784G</v>
+      </c>
+      <c r="X4" t="str">
+        <v>BIGSMILE HOLIDAYS PRIVATE LIMITED</v>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v>2014-01-06</v>
+      </c>
+      <c r="AA4" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757059796/id-ocr-docs/pan/uvw0mi0ew3tkdmasjzcz.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -734,9 +734,175 @@
         <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757059796/id-ocr-docs/pan/uvw0mi0ew3tkdmasjzcz.jpg</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v>BHARATBHAI REVABHAI PATEL</v>
+      </c>
+      <c r="N5" t="str">
+        <v>KAILASHBEN BHARATBHAI PATEL</v>
+      </c>
+      <c r="O5" t="str">
+        <v>DIVYABEN RAVIKUMAR PATEL</v>
+      </c>
+      <c r="P5" t="str">
+        <v>45, KRISHNA PARK, JASHODANAGAR, GOR NO KUVO, MANINAGAR (EAST), AHMEDABAD, PIN: 380008, GUJARAT, INDIA</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757061787/id-ocr-docs/passport_back/ei5u3vqir0y48iodsj5f.jpg</v>
+      </c>
+      <c r="R5" t="str">
+        <v>9170 3033 7162</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Ravikumar Bharatbhai Patel</v>
+      </c>
+      <c r="T5" t="str">
+        <v>1987-06-09</v>
+      </c>
+      <c r="U5" t="str">
+        <v>Male</v>
+      </c>
+      <c r="V5" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757061795/id-ocr-docs/aadhar/zlpujwfkkjngkcdpnwum.jpg</v>
+      </c>
+      <c r="W5" t="str">
+        <v>AAFCB7784G</v>
+      </c>
+      <c r="X5" t="str">
+        <v>BIGSMILE HOLIDAYS PRIVATE LIMITED</v>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v>2014-01-06</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757061798/id-ocr-docs/pan/rhpmxdrhrxkdfanstewj.jpg</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Z4007573</v>
+      </c>
+      <c r="C6" t="str">
+        <v>RAVIKUMAR</v>
+      </c>
+      <c r="D6" t="str">
+        <v>BHARATBHAI</v>
+      </c>
+      <c r="E6" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="F6" t="str">
+        <v>M</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1987-06-09</v>
+      </c>
+      <c r="H6" t="str">
+        <v>AHMEDABAD, GUJARAT</v>
+      </c>
+      <c r="I6" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2017-04-07</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2027-04-06</v>
+      </c>
+      <c r="L6" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757061848/id-ocr-docs/passport_front/eyel8lfjazz00yohq3k2.jpg</v>
+      </c>
+      <c r="M6" t="str">
+        <v>BHARATBHAI REVABHAI PATEL</v>
+      </c>
+      <c r="N6" t="str">
+        <v>KAILASHBEN BHARATBHAI PATEL</v>
+      </c>
+      <c r="O6" t="str">
+        <v>DIVYABEN RAVIKUMAR PATEL</v>
+      </c>
+      <c r="P6" t="str">
+        <v>45, KRISHNA PARK, JASHODANAGAR, GOR NO KUVO, MANINAGAR (EAST), AHMEDABAD, PIN: 380008, GUJARAT, INDIA</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757061855/id-ocr-docs/passport_back/lthjotlxunssh54vohiv.jpg</v>
+      </c>
+      <c r="R6" t="str">
+        <v>9170 3033 7162</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Ravikumar Bharatbhai Patel</v>
+      </c>
+      <c r="T6" t="str">
+        <v>1987-06-09</v>
+      </c>
+      <c r="U6" t="str">
+        <v>Male</v>
+      </c>
+      <c r="V6" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757061859/id-ocr-docs/aadhar/pl5wdyiegjkv6kavi30q.jpg</v>
+      </c>
+      <c r="W6" t="str">
+        <v>AAFCB7784G</v>
+      </c>
+      <c r="X6" t="str">
+        <v>BIGSMILE HOLIDAYS PRIVATE LIMITED</v>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v>2014-01-06</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757061866/id-ocr-docs/pan/at3ohrahcnticz4mjgpd.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -496,7 +496,7 @@
         <v>JIGESHKUMAR</v>
       </c>
       <c r="D2" t="str">
-        <v>SURESHCHANDRA</v>
+        <v>DANI</v>
       </c>
       <c r="E2" t="str">
         <v>INDIAN</v>
@@ -520,10 +520,10 @@
         <v>2027-10-08</v>
       </c>
       <c r="L2" t="str">
-        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/pg_1/v1/id-ocr-docs/passport_front/xep5emqoukz04xnmx7le.jpg?_a=BAMABka40</v>
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757316850/id-ocr-docs/passport_front/brorrm2ie6tvlpgf3s3o.jpg</v>
       </c>
       <c r="M2" t="str">
-        <v>SURESH CHANDRA NAVNITLAL DANI</v>
+        <v>SURESHCHANDRA NAVNITLAL DANI</v>
       </c>
       <c r="N2" t="str">
         <v>MINAXIBEN SURESHCHANDRA DANI</v>
@@ -532,10 +532,10 @@
         <v>CHETNA JIGESHKUMAR DANI</v>
       </c>
       <c r="P2" t="str">
-        <v>17,DUNGARSHI NAGAR- 1,B/H SHETH HOSPITAL,AHMEDABAD PIN:380007,GUJARAT,INDIA</v>
+        <v>17,DUNGARSHI NAGAR- 1,B/H SHETH HOSPITAL,AHMEDABAD, PIN:380007,GUJARAT,INDIA</v>
       </c>
       <c r="Q2" t="str">
-        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/pg_1/v1/id-ocr-docs/passport_back/r5uxxos0uope7rdu2kd6.jpg?_a=BAMABka40</v>
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757316888/id-ocr-docs/passport_back/rbirhgiqk3cr2ojriuim.jpg</v>
       </c>
       <c r="R2" t="str">
         <v/>
@@ -565,178 +565,12 @@
         <v/>
       </c>
       <c r="AA2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Z3905864</v>
-      </c>
-      <c r="C3" t="str">
-        <v>JIGESHKUMAR</v>
-      </c>
-      <c r="D3" t="str">
-        <v>SURESHCHANDRA</v>
-      </c>
-      <c r="E3" t="str">
-        <v>INDIAN</v>
-      </c>
-      <c r="F3" t="str">
-        <v>M</v>
-      </c>
-      <c r="G3" t="str">
-        <v>1974-04-14</v>
-      </c>
-      <c r="H3" t="str">
-        <v>MUMBAI, MAHARASHTRA</v>
-      </c>
-      <c r="I3" t="str">
-        <v>AHMEDABAD</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2017-10-09</v>
-      </c>
-      <c r="K3" t="str">
-        <v>2027-10-08</v>
-      </c>
-      <c r="L3" t="str">
-        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757311133/id-ocr-docs/passport_front/xuvtqtbudkdjbvcimroq.jpg</v>
-      </c>
-      <c r="M3" t="str">
-        <v>SURESHCHANDRA NAVNITLAL DANI</v>
-      </c>
-      <c r="N3" t="str">
-        <v>MINAXIBEN SURESHCHANDRA DANI</v>
-      </c>
-      <c r="O3" t="str">
-        <v>CHETNA JIGESHKUMAR DANI</v>
-      </c>
-      <c r="P3" t="str">
-        <v>17,DUNGARSHI NAGAR- 1,B/H, SHETH HOSPITAL,AHMEDABAD, PIN-380007, GUJARAT,INDIA</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757311223/id-ocr-docs/passport_back/wiqr6ofm7ehpg1lfy3c2.jpg</v>
-      </c>
-      <c r="R3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <v/>
-      </c>
-      <c r="V3" t="str">
-        <v/>
-      </c>
-      <c r="W3" t="str">
-        <v/>
-      </c>
-      <c r="X3" t="str">
-        <v/>
-      </c>
-      <c r="Y3" t="str">
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Z3905864</v>
-      </c>
-      <c r="C4" t="str">
-        <v>JIGESHKUMAR</v>
-      </c>
-      <c r="D4" t="str">
-        <v>DANI</v>
-      </c>
-      <c r="E4" t="str">
-        <v>INDIAN</v>
-      </c>
-      <c r="F4" t="str">
-        <v>M</v>
-      </c>
-      <c r="G4" t="str">
-        <v>1974-04-14</v>
-      </c>
-      <c r="H4" t="str">
-        <v>MUMBAI, MAHARASHTRA</v>
-      </c>
-      <c r="I4" t="str">
-        <v>AHMEDABAD</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2017-10-09</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2027-10-08</v>
-      </c>
-      <c r="L4" t="str">
-        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757311683/id-ocr-docs/passport_front/wechetkobmxsmn77k0bh.jpg</v>
-      </c>
-      <c r="M4" t="str">
-        <v>SURESHCHANDRA NAVNITLAL DANI</v>
-      </c>
-      <c r="N4" t="str">
-        <v>MINAXBEN SURESHCHANDRA DANI</v>
-      </c>
-      <c r="O4" t="str">
-        <v>CHETNA JIGESHKUMAR DANI</v>
-      </c>
-      <c r="P4" t="str">
-        <v>17,DUNGARSHI NAGAR- 1,B/H, SHETH HOSPITAL,AHMEDABAD, PIN:380007,GUJARAT,INDIA</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757311729/id-ocr-docs/passport_back/nujjrcc1vnegi0wny93j.jpg</v>
-      </c>
-      <c r="R4" t="str">
-        <v/>
-      </c>
-      <c r="S4" t="str">
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <v/>
-      </c>
-      <c r="V4" t="str">
-        <v/>
-      </c>
-      <c r="W4" t="str">
-        <v/>
-      </c>
-      <c r="X4" t="str">
-        <v/>
-      </c>
-      <c r="Y4" t="str">
-        <v/>
-      </c>
-      <c r="Z4" t="str">
-        <v/>
-      </c>
-      <c r="AA4" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -490,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Z3905864</v>
+        <v>X3941837</v>
       </c>
       <c r="C2" t="str">
-        <v>JIGESHKUMAR</v>
+        <v>NILESHKUMAR</v>
       </c>
       <c r="D2" t="str">
-        <v>DANI</v>
+        <v>VANANI</v>
       </c>
       <c r="E2" t="str">
         <v>INDIAN</v>
@@ -505,37 +505,37 @@
         <v>M</v>
       </c>
       <c r="G2" t="str">
-        <v>1974-04-14</v>
+        <v>1977-06-01</v>
       </c>
       <c r="H2" t="str">
-        <v>MUMBAI, MAHARASHTRA</v>
+        <v>BHAVNAGAR,GUJARAT</v>
       </c>
       <c r="I2" t="str">
         <v>AHMEDABAD</v>
       </c>
       <c r="J2" t="str">
-        <v>2017-10-09</v>
+        <v>2024-04-12</v>
       </c>
       <c r="K2" t="str">
-        <v>2027-10-08</v>
+        <v>2034-04-11</v>
       </c>
       <c r="L2" t="str">
-        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757316850/id-ocr-docs/passport_front/brorrm2ie6tvlpgf3s3o.jpg</v>
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/pg_1/v1/id-ocr-docs/passport_front/fsgpgqu8wexhlpgkmy9w.jpg?_a=BAMABka40</v>
       </c>
       <c r="M2" t="str">
-        <v>SURESHCHANDRA NAVNITLAL DANI</v>
+        <v>CHHAGANBHAI VALJIBHAI VANANI</v>
       </c>
       <c r="N2" t="str">
-        <v>MINAXIBEN SURESHCHANDRA DANI</v>
+        <v>GITABEN CHHAGANBHAI VANANI</v>
       </c>
       <c r="O2" t="str">
-        <v>CHETNA JIGESHKUMAR DANI</v>
+        <v>VAISHALI NILESHKUMAR VANANI</v>
       </c>
       <c r="P2" t="str">
-        <v>17,DUNGARSHI NAGAR- 1,B/H SHETH HOSPITAL,AHMEDABAD, PIN:380007,GUJARAT,INDIA</v>
+        <v>4/6,AANIK APPT. NR. L.J. COLLEGE VASTRAPUR,AHMEDABAD</v>
       </c>
       <c r="Q2" t="str">
-        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757316888/id-ocr-docs/passport_back/rbirhgiqk3cr2ojriuim.jpg</v>
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757321573/id-ocr-docs/passport_back/cuuo4ngfk22vg85hefkg.jpg</v>
       </c>
       <c r="R2" t="str">
         <v/>
@@ -565,12 +565,510 @@
         <v/>
       </c>
       <c r="AA2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>X3941670</v>
+      </c>
+      <c r="C3" t="str">
+        <v>VAISHALIBEN</v>
+      </c>
+      <c r="D3" t="str">
+        <v>VANANI</v>
+      </c>
+      <c r="E3" t="str">
+        <v>IND</v>
+      </c>
+      <c r="F3" t="str">
+        <v>F</v>
+      </c>
+      <c r="G3" t="str">
+        <v>1978-05-22</v>
+      </c>
+      <c r="H3" t="str">
+        <v>BHAVNAGAR, GUJARAT</v>
+      </c>
+      <c r="I3" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2024-04-12</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2034-11-01</v>
+      </c>
+      <c r="L3" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757322030/id-ocr-docs/passport_front/yj6a5jefenjrlmijfz3d.png</v>
+      </c>
+      <c r="M3" t="str">
+        <v>GORDHANBHAI KHIMJIBHAI DUDHAT</v>
+      </c>
+      <c r="N3" t="str">
+        <v>LILAVATIBEN GORDHANBHAI DUDHAT</v>
+      </c>
+      <c r="O3" t="str">
+        <v>NILESH CHHAGANBHAI VANANI</v>
+      </c>
+      <c r="P3" t="str">
+        <v>4/6,AANIK APPT. NR. L. J. COLLEGE, VASTRAPUR,AHMEDABAD</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757321939/id-ocr-docs/passport_back/fmnzhcrhthf3kiocujtl.png</v>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>X4792565</v>
+      </c>
+      <c r="C4" t="str">
+        <v>DIPALBEN</v>
+      </c>
+      <c r="D4" t="str">
+        <v>NAVINBHAI</v>
+      </c>
+      <c r="E4" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="F4" t="str">
+        <v>F</v>
+      </c>
+      <c r="G4" t="str">
+        <v>1990-10-31</v>
+      </c>
+      <c r="H4" t="str">
+        <v>BHAVNAGAR, GUJARAT</v>
+      </c>
+      <c r="I4" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2024-05-03</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2034-05-02</v>
+      </c>
+      <c r="L4" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757322323/id-ocr-docs/passport_front/vg0uou10d7cy2npbb8co.png</v>
+      </c>
+      <c r="M4" t="str">
+        <v>NAVINDBRAI SHAMJIBHAI VAGHANI</v>
+      </c>
+      <c r="N4" t="str">
+        <v>VASANTBEN NAVINDBHAI VAGHANI</v>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v>PLOT NO.491,MOTI VIHAR,STREET NO 8,VIJAYRAJNAGAR BHAVNAGAR PARA,BHAVNAGAR PIN:364003,GUJARAT,INDIA</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757322324/id-ocr-docs/passport_back/ufr7429izav2gw2c5jaq.png</v>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>M4820143</v>
+      </c>
+      <c r="C5" t="str">
+        <v>HARDIK</v>
+      </c>
+      <c r="D5" t="str">
+        <v>VAGHANI</v>
+      </c>
+      <c r="E5" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="F5" t="str">
+        <v>M</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1993-05-26</v>
+      </c>
+      <c r="H5" t="str">
+        <v>BHAVNAGAR, GUJARAT</v>
+      </c>
+      <c r="I5" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2014-12-31</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2024-12-30</v>
+      </c>
+      <c r="L5" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757322581/id-ocr-docs/passport_front/lyq5lbdij3aamc3xrzek.jpg</v>
+      </c>
+      <c r="M5" t="str">
+        <v>NAVINBHAI SHAMJIBHAI VAGHANI</v>
+      </c>
+      <c r="N5" t="str">
+        <v>VASANTBEN NAVINBHAI VAGHANI</v>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v>PLOT NO 491, STREET NO 8 MOTI VIHAR, VIJAYRAJNAGAR, BHAVNAGAR, PIN: 364003, GUJARAT, INDIA</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757322585/id-ocr-docs/passport_back/nlxrqqt7sd8kzx4xzk03.jpg</v>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>V1501244</v>
+      </c>
+      <c r="C6" t="str">
+        <v>MAYURAJSINH</v>
+      </c>
+      <c r="D6" t="str">
+        <v>GOHIL</v>
+      </c>
+      <c r="E6" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="F6" t="str">
+        <v>M</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1977-01-09</v>
+      </c>
+      <c r="H6" t="str">
+        <v>VEJALPUR AHMEDABAD, GUJARAT</v>
+      </c>
+      <c r="I6" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2021-09-17</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2031-09-16</v>
+      </c>
+      <c r="L6" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757322677/id-ocr-docs/passport_front/ebbwwmancpcxkbh7k8wr.jpg</v>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>V1509418</v>
+      </c>
+      <c r="C7" t="str">
+        <v>DEVRAJ</v>
+      </c>
+      <c r="D7" t="str">
+        <v>GOHIL</v>
+      </c>
+      <c r="E7" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="F7" t="str">
+        <v>M</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2009-07-14</v>
+      </c>
+      <c r="H7" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="I7" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2021-09-24</v>
+      </c>
+      <c r="K7" t="str">
+        <v>2026-09-23</v>
+      </c>
+      <c r="L7" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757322803/id-ocr-docs/passport_front/xjm78jecwp139c1gpmyy.jpg</v>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>V1499913</v>
+      </c>
+      <c r="C8" t="str">
+        <v>MINALBA</v>
+      </c>
+      <c r="D8" t="str">
+        <v>GOHIL</v>
+      </c>
+      <c r="E8" t="str">
+        <v>IND</v>
+      </c>
+      <c r="F8" t="str">
+        <v>F</v>
+      </c>
+      <c r="G8" t="str">
+        <v>1976-07-20</v>
+      </c>
+      <c r="H8" t="str">
+        <v>ZINZER AHMEDABAD, GUJARAT</v>
+      </c>
+      <c r="I8" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2021-09-17</v>
+      </c>
+      <c r="K8" t="str">
+        <v>2031-09-16</v>
+      </c>
+      <c r="L8" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757322867/id-ocr-docs/passport_front/ddkz4frmxxptpqfxvi46.jpg</v>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <v/>
+      </c>
+      <c r="AA8" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
         <v>Sequence</v>
       </c>
       <c r="B1" t="str">
-        <v>First Name</v>
+        <v>Full Name</v>
       </c>
       <c r="C1" t="str">
         <v>Last Name</v>
@@ -452,39 +452,24 @@
         <v>Aadhaar Name</v>
       </c>
       <c r="Q1" t="str">
-        <v>Aadhaar Date Of Birth</v>
+        <v>PAN Number</v>
       </c>
       <c r="R1" t="str">
-        <v>Aadhaar Gender</v>
+        <v>PAN Name</v>
       </c>
       <c r="S1" t="str">
-        <v>Aadhaar Address</v>
+        <v>Passport Address</v>
       </c>
       <c r="T1" t="str">
-        <v>PAN Number</v>
+        <v>Passport Front Image URL</v>
       </c>
       <c r="U1" t="str">
-        <v>PAN Name</v>
+        <v>Passport Back Image URL</v>
       </c>
       <c r="V1" t="str">
-        <v>PAN Father Name</v>
+        <v>Aadhaar Image URL</v>
       </c>
       <c r="W1" t="str">
-        <v>PAN Date Of Birth</v>
-      </c>
-      <c r="X1" t="str">
-        <v>Passport Address</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>Passport Front Image URL</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>Passport Back Image URL</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>Aadhaar Image URL</v>
-      </c>
-      <c r="AB1" t="str">
         <v>PAN Image URL</v>
       </c>
     </row>
@@ -1372,9 +1357,80 @@
         <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757443153/id-ocr-docs/pan/wkphnbnbdr2yndn9gpsb.jpg</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>RAVIKUMAR BHARATBHAI</v>
+      </c>
+      <c r="C16" t="str">
+        <v>PATEL</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Z4007573</v>
+      </c>
+      <c r="E16" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="F16" t="str">
+        <v>M</v>
+      </c>
+      <c r="G16" t="str">
+        <v>1987-06-09</v>
+      </c>
+      <c r="H16" t="str">
+        <v>AHMEDABAD, GUJARAT</v>
+      </c>
+      <c r="I16" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2017-04-07</v>
+      </c>
+      <c r="K16" t="str">
+        <v>2027-04-06</v>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757484729/id-ocr-docs/passport_front/jludayysh3yttumevtq1.jpg</v>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -407,69 +407,75 @@
         <v>Sequence</v>
       </c>
       <c r="B1" t="str">
+        <v>Aadhaar Name</v>
+      </c>
+      <c r="C1" t="str">
         <v>Full Name</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Last Name</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Passport Number</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Nationality</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Sex</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Date Of Birth (Passport)</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Place Of Birth</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Place Of Issue</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Date Of Issue</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Date Of Expiry</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
+        <v>Mobile Number</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="O1" t="str">
         <v>Father Name</v>
       </c>
-      <c r="M1" t="str">
+      <c r="P1" t="str">
         <v>Mother Name</v>
       </c>
-      <c r="N1" t="str">
+      <c r="Q1" t="str">
         <v>Spouse Name</v>
       </c>
-      <c r="O1" t="str">
+      <c r="R1" t="str">
         <v>Aadhaar Number</v>
       </c>
-      <c r="P1" t="str">
-        <v>Aadhaar Name</v>
-      </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
         <v>PAN Number</v>
       </c>
-      <c r="R1" t="str">
+      <c r="T1" t="str">
         <v>PAN Name</v>
       </c>
-      <c r="S1" t="str">
+      <c r="U1" t="str">
         <v>Passport Address</v>
       </c>
-      <c r="T1" t="str">
+      <c r="V1" t="str">
         <v>Passport Front Image URL</v>
       </c>
-      <c r="U1" t="str">
+      <c r="W1" t="str">
         <v>Passport Back Image URL</v>
       </c>
-      <c r="V1" t="str">
+      <c r="X1" t="str">
         <v>Aadhaar Image URL</v>
       </c>
-      <c r="W1" t="str">
+      <c r="Y1" t="str">
         <v>PAN Image URL</v>
       </c>
     </row>
@@ -1428,9 +1434,305 @@
         <v/>
       </c>
     </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>TAMANNA</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v>GBSPP5052E</v>
+      </c>
+      <c r="R17" t="str">
+        <v>TAMANNA</v>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757489490/id-ocr-docs/pan/l6x6iw7jlipipn4fpsud.jpg</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v>GBSPP5052E</v>
+      </c>
+      <c r="R18" t="str">
+        <v>TAMANNA KAMLESHBHAI</v>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757489573/id-ocr-docs/pan/i0nfau9ukrrzkymab9k2.jpg</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>HARDIK NAVINBHAI</v>
+      </c>
+      <c r="D19" t="str">
+        <v>VAGHANI</v>
+      </c>
+      <c r="E19" t="str">
+        <v>M4820143</v>
+      </c>
+      <c r="F19" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="G19" t="str">
+        <v>M</v>
+      </c>
+      <c r="H19" t="str">
+        <v>1993-05-26</v>
+      </c>
+      <c r="I19" t="str">
+        <v>BHAVNAGAR, GUJARAT</v>
+      </c>
+      <c r="J19" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="K19" t="str">
+        <v>2014-12-31</v>
+      </c>
+      <c r="L19" t="str">
+        <v>2024-12-30</v>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757595072/id-ocr-docs/passport_front/vvhayrkidzahwfwoa2jg.jpg</v>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v>918758618968</v>
+      </c>
+      <c r="N20" t="str">
+        <v>tannu22parmar@gmail.com</v>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -397,47 +397,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Sequence</v>
+        <v>NO</v>
       </c>
       <c r="B1" t="str">
+        <v>PAN Number</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Aadhaar Number</v>
+      </c>
+      <c r="D1" t="str">
         <v>Aadhaar Name</v>
       </c>
-      <c r="C1" t="str">
-        <v>Full Name</v>
-      </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
+        <v>Sex</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Full Name (Passport)</v>
+      </c>
+      <c r="G1" t="str">
         <v>Last Name</v>
       </c>
-      <c r="E1" t="str">
-        <v>Passport Number</v>
-      </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
+        <v>Passport No.</v>
+      </c>
+      <c r="I1" t="str">
         <v>Nationality</v>
       </c>
-      <c r="G1" t="str">
-        <v>Sex</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Date Of Birth (Passport)</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Place Of Birth</v>
-      </c>
       <c r="J1" t="str">
-        <v>Place Of Issue</v>
+        <v>DOB</v>
       </c>
       <c r="K1" t="str">
-        <v>Date Of Issue</v>
+        <v>D.O.Issue</v>
       </c>
       <c r="L1" t="str">
-        <v>Date Of Expiry</v>
+        <v>D.O.Expire</v>
       </c>
       <c r="M1" t="str">
         <v>Mobile Number</v>
@@ -446,36 +446,54 @@
         <v>Email</v>
       </c>
       <c r="O1" t="str">
+        <v>REF</v>
+      </c>
+      <c r="P1" t="str">
+        <v>FF 6E</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>FF EK</v>
+      </c>
+      <c r="R1" t="str">
+        <v>FF EY</v>
+      </c>
+      <c r="S1" t="str">
+        <v>FF SQ</v>
+      </c>
+      <c r="T1" t="str">
+        <v>FF AI</v>
+      </c>
+      <c r="U1" t="str">
         <v>Father Name</v>
       </c>
-      <c r="P1" t="str">
+      <c r="V1" t="str">
         <v>Mother Name</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="W1" t="str">
         <v>Spouse Name</v>
       </c>
-      <c r="R1" t="str">
-        <v>Aadhaar Number</v>
-      </c>
-      <c r="S1" t="str">
-        <v>PAN Number</v>
-      </c>
-      <c r="T1" t="str">
+      <c r="X1" t="str">
+        <v>Place Of Birth</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Place Of Issue</v>
+      </c>
+      <c r="Z1" t="str">
         <v>PAN Name</v>
       </c>
-      <c r="U1" t="str">
+      <c r="AA1" t="str">
         <v>Passport Address</v>
       </c>
-      <c r="V1" t="str">
+      <c r="AB1" t="str">
         <v>Passport Front Image URL</v>
       </c>
-      <c r="W1" t="str">
+      <c r="AC1" t="str">
         <v>Passport Back Image URL</v>
       </c>
-      <c r="X1" t="str">
+      <c r="AD1" t="str">
         <v>Aadhaar Image URL</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="AE1" t="str">
         <v>PAN Image URL</v>
       </c>
     </row>
@@ -1730,9 +1748,294 @@
         <v/>
       </c>
     </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v>123456878</v>
+      </c>
+      <c r="N21" t="str">
+        <v>ergfhrthnr</v>
+      </c>
+      <c r="O21" t="str">
+        <v>BHARATBHAI REVABHAI PATEL</v>
+      </c>
+      <c r="P21" t="str">
+        <v>KAILASHBEN BHARATBHAI PATEL</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>DIVYABEN RAVIKUMAR PATEL</v>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v>45, KRISHNA PARK, JASHODANAGAR, GOR NO KUVO, MANINAGAR (EAST), AHMEDABAD</v>
+      </c>
+      <c r="V21" t="str">
+        <v>hfgtrntnt</v>
+      </c>
+      <c r="W21" t="str">
+        <v>hgufhgiurhg</v>
+      </c>
+      <c r="X21" t="str">
+        <v>giurhgiu</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>uhfgyuebg</v>
+      </c>
+      <c r="Z21" t="str">
+        <v>jngiurng</v>
+      </c>
+      <c r="AA21" t="str">
+        <v>AH2070810713417</v>
+      </c>
+      <c r="AB21" t="str">
+        <v/>
+      </c>
+      <c r="AC21" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757666244/id-ocr-docs/passport_back/mq0fcanyfsx8ogptzfuz.jpg</v>
+      </c>
+      <c r="AD21" t="str">
+        <v/>
+      </c>
+      <c r="AE21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>AAFCB7784G</v>
+      </c>
+      <c r="C22" t="str">
+        <v>9170 3033 7162</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Ravikumar Bharatbhai Patel</v>
+      </c>
+      <c r="E22" t="str">
+        <v>M</v>
+      </c>
+      <c r="F22" t="str">
+        <v>RAVIKUMAR BHARATBHAI</v>
+      </c>
+      <c r="G22" t="str">
+        <v>PATEL</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Z4007573</v>
+      </c>
+      <c r="I22" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="J22" t="str">
+        <v>1987-06-09</v>
+      </c>
+      <c r="K22" t="str">
+        <v>2017-04-07</v>
+      </c>
+      <c r="L22" t="str">
+        <v>2027-04-06</v>
+      </c>
+      <c r="M22" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="N22" t="str">
+        <v>bigsmileholiday@gmail.com</v>
+      </c>
+      <c r="O22" t="str">
+        <v>Ravikumar</v>
+      </c>
+      <c r="P22" t="str">
+        <v>asdfghjk</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>qwertyui</v>
+      </c>
+      <c r="R22" t="str">
+        <v>zxcvbnmk</v>
+      </c>
+      <c r="S22" t="str">
+        <v>dfrgthbv</v>
+      </c>
+      <c r="T22" t="str">
+        <v>asecvgtj</v>
+      </c>
+      <c r="U22" t="str">
+        <v>BHARATBHAI REVABHAI PATEL</v>
+      </c>
+      <c r="V22" t="str">
+        <v>KAILASHBEN BHARATBHAI PATEL</v>
+      </c>
+      <c r="W22" t="str">
+        <v>DIVYABEN RAVIKUMAR PATEL</v>
+      </c>
+      <c r="X22" t="str">
+        <v>AHMEDABAD, GUJARAT</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="Z22" t="str">
+        <v>BIGSMILE HOLIDAYS PRIVATE LIMITED</v>
+      </c>
+      <c r="AA22" t="str">
+        <v>45, KRISHNA PARK, JASHODANAGAR, GOR NO KUVO, MANINAGAR (EAST), AHMEDABAD</v>
+      </c>
+      <c r="AB22" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757671646/id-ocr-docs/passport_front/fsxnqfx0vnmunwx7aadv.jpg</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757671656/id-ocr-docs/passport_back/zoytpjjiwc2cr6aa5cmq.jpg</v>
+      </c>
+      <c r="AD22" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757671672/id-ocr-docs/aadhar/anpoxiaime64w1lwcyin.jpg</v>
+      </c>
+      <c r="AE22" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757671711/id-ocr-docs/pan/b2clduuuat84vhxdzdxz.jpg</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>AAFCB7784G</v>
+      </c>
+      <c r="C23" t="str">
+        <v>9170 3033 7162</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Ravikumar Bharatbhai Patel</v>
+      </c>
+      <c r="E23" t="str">
+        <v>M</v>
+      </c>
+      <c r="F23" t="str">
+        <v>RAVIKUMAR BHARATBHAI</v>
+      </c>
+      <c r="G23" t="str">
+        <v>PATEL</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Z4007573</v>
+      </c>
+      <c r="I23" t="str">
+        <v>INDIAN</v>
+      </c>
+      <c r="J23" t="str">
+        <v>1987-06-09</v>
+      </c>
+      <c r="K23" t="str">
+        <v>2017-04-07</v>
+      </c>
+      <c r="L23" t="str">
+        <v>2027-04-06</v>
+      </c>
+      <c r="M23" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="N23" t="str">
+        <v>bigsmileholiday@gmail.com</v>
+      </c>
+      <c r="O23" t="str">
+        <v>Ravikumar</v>
+      </c>
+      <c r="P23" t="str">
+        <v>asdfghjk</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>qwertyui</v>
+      </c>
+      <c r="R23" t="str">
+        <v>zxcvbnmk</v>
+      </c>
+      <c r="S23" t="str">
+        <v>lkjhgfds</v>
+      </c>
+      <c r="T23" t="str">
+        <v>zsxdcfvg</v>
+      </c>
+      <c r="U23" t="str">
+        <v>BHARATBHAI REVABHAI PATEL</v>
+      </c>
+      <c r="V23" t="str">
+        <v>KAILASHBEN BHARATBHAI PATEL</v>
+      </c>
+      <c r="W23" t="str">
+        <v>DIVYABEN RAVIKUMAR PATEL</v>
+      </c>
+      <c r="X23" t="str">
+        <v>AHMEDABAD, GUJARAT</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>AHMEDABAD</v>
+      </c>
+      <c r="Z23" t="str">
+        <v>BIGSMILE HOLIDAYS PRIVATE LIMITED</v>
+      </c>
+      <c r="AA23" t="str">
+        <v>45, KRISHNA PARK, JASHODANAGAR, GOR NO KUVO, MANINAGAR (EAST), AHMEDABAD, PIN: 380008, GUJARAT, INDIA</v>
+      </c>
+      <c r="AB23" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757676055/id-ocr-docs/passport_front/qr7exwxgazo42jrtd7xv.jpg</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757676065/id-ocr-docs/passport_back/rhkiettzve9q1ms3h3mu.jpg</v>
+      </c>
+      <c r="AD23" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757676083/id-ocr-docs/aadhar/mzofwkffoisuocrl07xk.jpg</v>
+      </c>
+      <c r="AE23" t="str">
+        <v>https://res.cloudinary.com/dnj8hyep5/image/upload/v1757676094/id-ocr-docs/pan/uduqwx7mybtkqdduqm0f.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE23"/>
   </ignoredErrors>
 </worksheet>
 </file>